--- a/DataLibrary/Data/InterviewTestData.xlsx
+++ b/DataLibrary/Data/InterviewTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>FirstName</t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t>pwalker2@test.com</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>2222</t>
   </si>
 </sst>
 </file>
@@ -740,8 +749,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13">
-  <autoFilter ref="A1:E13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15">
+  <autoFilter ref="A1:E15"/>
   <tableColumns count="5">
     <tableColumn id="1" name="FirstName"/>
     <tableColumn id="2" name="LastName"/>
@@ -1050,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1277,6 +1286,40 @@
         <v>57</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
   <tableParts>

--- a/DataLibrary/Data/InterviewTestData.xlsx
+++ b/DataLibrary/Data/InterviewTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>FirstName</t>
   </si>
@@ -196,13 +196,31 @@
     <t>pwalker2@test.com</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>2222</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>99</t>
   </si>
 </sst>
 </file>
@@ -749,8 +767,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15">
-  <autoFilter ref="A1:E15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22">
+  <autoFilter ref="A1:E22"/>
   <tableColumns count="5">
     <tableColumn id="1" name="FirstName"/>
     <tableColumn id="2" name="LastName"/>
@@ -1059,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1317,7 +1335,126 @@
         <v>59</v>
       </c>
       <c r="E15" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>60</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/DataLibrary/Data/InterviewTestData.xlsx
+++ b/DataLibrary/Data/InterviewTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>FirstName</t>
   </si>
@@ -200,27 +200,6 @@
   </si>
   <si>
     <t>22</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>99</t>
   </si>
 </sst>
 </file>
@@ -767,8 +746,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22">
-  <autoFilter ref="A1:E22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15">
+  <autoFilter ref="A1:E15"/>
   <tableColumns count="5">
     <tableColumn id="1" name="FirstName"/>
     <tableColumn id="2" name="LastName"/>
@@ -1077,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1338,125 +1317,6 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
   </sheetData>
   <headerFooter/>
   <tableParts>

--- a/DataLibrary/Data/InterviewTestData.xlsx
+++ b/DataLibrary/Data/InterviewTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>FirstName</t>
   </si>
@@ -194,12 +194,6 @@
   </si>
   <si>
     <t>pwalker2@test.com</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>22</t>
   </si>
 </sst>
 </file>
@@ -746,8 +740,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15">
-  <autoFilter ref="A1:E15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13">
+  <autoFilter ref="A1:E13"/>
   <tableColumns count="5">
     <tableColumn id="1" name="FirstName"/>
     <tableColumn id="2" name="LastName"/>
@@ -1056,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1283,40 +1277,6 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
   </sheetData>
   <headerFooter/>
   <tableParts>

--- a/DataLibrary/Data/InterviewTestData.xlsx
+++ b/DataLibrary/Data/InterviewTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>FirstName</t>
   </si>
@@ -194,6 +194,30 @@
   </si>
   <si>
     <t>pwalker2@test.com</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Cooke</t>
+  </si>
+  <si>
+    <t>Web Developer</t>
+  </si>
+  <si>
+    <t>07909967687</t>
+  </si>
+  <si>
+    <t>richcooke@hotmail.com</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>Mechanic</t>
+  </si>
+  <si>
+    <t>spannermandan@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -740,8 +764,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13">
-  <autoFilter ref="A1:E13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15">
+  <autoFilter ref="A1:E15"/>
   <tableColumns count="5">
     <tableColumn id="1" name="FirstName"/>
     <tableColumn id="2" name="LastName"/>
@@ -1050,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1277,6 +1301,40 @@
         <v>57</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
   <tableParts>

--- a/DataLibrary/Data/InterviewTestData.xlsx
+++ b/DataLibrary/Data/InterviewTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>FirstName</t>
   </si>
@@ -194,30 +194,6 @@
   </si>
   <si>
     <t>pwalker2@test.com</t>
-  </si>
-  <si>
-    <t>Rich</t>
-  </si>
-  <si>
-    <t>Cooke</t>
-  </si>
-  <si>
-    <t>Web Developer</t>
-  </si>
-  <si>
-    <t>07909967687</t>
-  </si>
-  <si>
-    <t>richcooke@hotmail.com</t>
-  </si>
-  <si>
-    <t>Danny</t>
-  </si>
-  <si>
-    <t>Mechanic</t>
-  </si>
-  <si>
-    <t>spannermandan@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -764,8 +740,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15">
-  <autoFilter ref="A1:E15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13">
+  <autoFilter ref="A1:E13"/>
   <tableColumns count="5">
     <tableColumn id="1" name="FirstName"/>
     <tableColumn id="2" name="LastName"/>
@@ -1074,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1301,40 +1277,6 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
   </sheetData>
   <headerFooter/>
   <tableParts>
